--- a/diseases.xlsx
+++ b/diseases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693DEAFE-2B7D-8142-8964-382AA2629444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12EEA16-9628-B345-82FA-39E2E6FE2674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21580" yWindow="6940" windowWidth="26720" windowHeight="19520" xr2:uid="{F4B6EA38-A0EC-964C-A362-9B5448C5285B}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16400" xr2:uid="{F4B6EA38-A0EC-964C-A362-9B5448C5285B}"/>
   </bookViews>
   <sheets>
     <sheet name="Diseases" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>list_name</t>
   </si>
@@ -205,12 +205,6 @@
   </si>
   <si>
     <t>Perioperative Prophylaxis</t>
-  </si>
-  <si>
-    <t>eyes</t>
-  </si>
-  <si>
-    <t>Eyes</t>
   </si>
 </sst>
 </file>
@@ -645,7 +639,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,15 +796,9 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">

--- a/diseases.xlsx
+++ b/diseases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12EEA16-9628-B345-82FA-39E2E6FE2674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1676A16C-F773-4642-857C-EA884778FD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16400" xr2:uid="{F4B6EA38-A0EC-964C-A362-9B5448C5285B}"/>
+    <workbookView xWindow="10000" yWindow="760" windowWidth="24460" windowHeight="16360" xr2:uid="{F4B6EA38-A0EC-964C-A362-9B5448C5285B}"/>
   </bookViews>
   <sheets>
     <sheet name="Diseases" sheetId="1" r:id="rId1"/>
@@ -81,10 +81,28 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The value that will be saved when this choice is selected. This is the value you will use in analysis.
-Like field names, choice names should be short and descriptive (e.g., y for Yes and n for No).</t>
+          </rPr>
+          <t xml:space="preserve">The value that will be saved when this choice is selected. This is the value you will use in analysis.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Like field names, choice names should be short and descriptive (e.g., y for Yes and n for No).</t>
         </r>
       </text>
     </comment>
@@ -96,7 +114,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>The user-visible text for the choice. This text can have translations or be styled using subsets of Markdown and HTML.</t>
         </r>
@@ -110,12 +127,68 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>You can include any number of additional columns to provide information about each list item. These are useful to chain multiple selects together or look up data based on a selected item.
-https://docs.getodk.org/form-logic/#filtering-options-in-select-questions
-https://docs.getodk.org/form-datasets/
-Also see the List lookups tab.</t>
+          </rPr>
+          <t xml:space="preserve">You can include any number of additional columns to provide information about each list item. These are useful to chain multiple selects together or look up data based on a selected item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://docs.getodk.org/form-logic/#filtering-options-in-select-questions
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://docs.getodk.org/form-datasets/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Also see the List lookups tab.</t>
         </r>
       </text>
     </comment>
@@ -124,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>list_name</t>
   </si>
@@ -133,9 +206,6 @@
   </si>
   <si>
     <t>label</t>
-  </si>
-  <si>
-    <t>selected_disease</t>
   </si>
   <si>
     <t>diseases</t>
@@ -247,7 +317,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -638,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613B1A17-6DBB-4640-BBD7-A090B8D4FCBC}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A13:C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,139 +728,137 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="6"/>
     </row>

--- a/diseases.xlsx
+++ b/diseases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboen\Documents\Repositories\CDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1676A16C-F773-4642-857C-EA884778FD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A66A9C-198D-4CEC-B2D1-A8F4408F503D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="760" windowWidth="24460" windowHeight="16360" xr2:uid="{F4B6EA38-A0EC-964C-A362-9B5448C5285B}"/>
+    <workbookView xWindow="38780" yWindow="2770" windowWidth="15080" windowHeight="9850" xr2:uid="{F4B6EA38-A0EC-964C-A362-9B5448C5285B}"/>
   </bookViews>
   <sheets>
     <sheet name="Diseases" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,6 @@
     <t>skin</t>
   </si>
   <si>
-    <t>Skin &amp; Skin Organ</t>
-  </si>
-  <si>
     <t>respiratory_tract</t>
   </si>
   <si>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>Perioperative Prophylaxis</t>
+  </si>
+  <si>
+    <t>Skin &amp; Skin Organs</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -409,9 +409,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -449,7 +449,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -555,7 +555,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -697,7 +697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -708,17 +708,17 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.8125" customWidth="1"/>
+    <col min="2" max="2" width="36.1875" customWidth="1"/>
+    <col min="3" max="3" width="31.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +730,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -742,7 +742,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -750,407 +750,407 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="4"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="4"/>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="4"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="4"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="4"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="4"/>
@@ -1161,8 +1161,6 @@
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>OR($A1="begin group", $A1="begin_group", $A1="end group", $A1="end_group")</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>OR($A1="begin repeat", $A1="begin_repeat", $A1="end repeat", $A1="end_repeat")</formula>
     </cfRule>
